--- a/Calculations/Inverter Loss Calculation.xlsx
+++ b/Calculations/Inverter Loss Calculation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faheem/SemesterProjectPED2/Calculations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faheem/Documents/GitHub/SemesterProjectPED2/Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074F7C91-2020-1A4F-89A8-28B097B468BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{402DD9A7-DAFF-BE48-9E79-FB12B125226B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14540" activeTab="2" xr2:uid="{E68F2451-9246-4647-8054-A89E0E311DC4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>Inverter Evaluation</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Tj = 25℃, Vsd = 0.68V → 0.9V, If = 1 → 200A</t>
+  </si>
+  <si>
+    <t>Eiss (pJ)</t>
   </si>
 </sst>
 </file>
@@ -4029,10 +4032,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B82EB2-F7B8-394C-B6A6-CA9828326101}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:G27"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4042,7 +4045,7 @@
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -4053,13 +4056,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -4087,8 +4090,11 @@
       <c r="I4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13000</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>1.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9000</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>3.4329999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6000</v>
       </c>
@@ -4189,7 +4195,7 @@
         <v>1.56433</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3500</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>2.3833299999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2200</v>
       </c>
@@ -4257,7 +4263,7 @@
         <v>2.8915299999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -4291,13 +4297,13 @@
         <v>3.45153</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I14" s="4">
         <f>(A5*E5)+I13</f>
         <v>1300</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -4535,7 +4541,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Calculations/Inverter Loss Calculation.xlsx
+++ b/Calculations/Inverter Loss Calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faheem/Documents/GitHub/SemesterProjectPED2/Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{402DD9A7-DAFF-BE48-9E79-FB12B125226B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A416DA8B-46F6-4D4F-9A78-415AD306EB38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14540" activeTab="2" xr2:uid="{E68F2451-9246-4647-8054-A89E0E311DC4}"/>
   </bookViews>

--- a/Calculations/Inverter Loss Calculation.xlsx
+++ b/Calculations/Inverter Loss Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faheem/Documents/GitHub/SemesterProjectPED2/Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A416DA8B-46F6-4D4F-9A78-415AD306EB38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E803B52D-C190-6D4A-B2A2-58C2C3F3B948}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14540" activeTab="2" xr2:uid="{E68F2451-9246-4647-8054-A89E0E311DC4}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14540" activeTab="1" xr2:uid="{E68F2451-9246-4647-8054-A89E0E311DC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor Parameters" sheetId="2" r:id="rId1"/>
@@ -18,18 +18,7 @@
     <sheet name="Power MOSFET Charac" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet4!$B$4:$B$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet4!$E$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet4!$E$4:$E$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet4!$B$4:$B$15</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet4!$E$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet4!$E$4:$E$15</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet4!$B$4:$B$15</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet4!$E$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet4!$E$4:$E$15</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,10 +377,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3665,12 +3654,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -3888,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CF51CE-DF2A-284D-92EB-73DEF47F6FFD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4034,7 +4023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B82EB2-F7B8-394C-B6A6-CA9828326101}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -4057,10 +4046,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4298,18 +4287,18 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f>(A5*E5)+I13</f>
         <v>1300</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="I15" s="4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="I15" s="3">
         <f t="shared" ref="I15:I19" si="5">(A6*E6)+I14</f>
         <v>18400</v>
       </c>
@@ -4324,13 +4313,13 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="I16" s="4">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="I16" s="3">
         <f t="shared" si="5"/>
         <v>108400</v>
       </c>
@@ -4345,13 +4334,13 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="I17" s="4">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="I17" s="3">
         <f t="shared" si="5"/>
         <v>139900</v>
       </c>
@@ -4366,13 +4355,13 @@
       <c r="C18" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="4">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="I18" s="3">
         <f t="shared" si="5"/>
         <v>155300</v>
       </c>
@@ -4387,45 +4376,45 @@
       <c r="C19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="I19" s="4">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="I19" s="3">
         <f t="shared" si="5"/>
         <v>169300</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -4437,12 +4426,12 @@
       <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -4454,12 +4443,12 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -4471,12 +4460,12 @@
       <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -4488,12 +4477,12 @@
       <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -4505,21 +4494,15 @@
       <c r="C28" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D27:G27"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A3:B3"/>
@@ -4530,6 +4513,12 @@
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
